--- a/src/ItemData.xlsx
+++ b/src/ItemData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25602"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{1BFC336E-92A3-4ECC-B205-4788C55ED407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F18FA78-FA10-46C8-90BC-F3F6AAA34554}"/>
+  <xr:revisionPtr revIDLastSave="583" documentId="8_{1BFC336E-92A3-4ECC-B205-4788C55ED407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71809B6-CE27-4D3E-AE79-655D6DA47ADF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Armor" sheetId="2" r:id="rId2"/>
     <sheet name="Accessory" sheetId="3" r:id="rId3"/>
     <sheet name="Skills" sheetId="4" r:id="rId4"/>
-    <sheet name="Tools" sheetId="5" r:id="rId5"/>
+    <sheet name="Supplies" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="221">
   <si>
     <t>Name</t>
   </si>
@@ -168,6 +168,282 @@
     <t>Dragon slaying lance</t>
   </si>
   <si>
+    <t>Iron sallet</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Iron armor</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Iron shield</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Buckler</t>
+  </si>
+  <si>
+    <t>Leather boots</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Leather gloves</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Leather belt</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Wizard hat</t>
+  </si>
+  <si>
+    <t>Wizard robes</t>
+  </si>
+  <si>
+    <t>Leather body</t>
+  </si>
+  <si>
+    <t>Steel sallet</t>
+  </si>
+  <si>
+    <t>Steel armor</t>
+  </si>
+  <si>
+    <t>Steel shield</t>
+  </si>
+  <si>
+    <t>Ranger's coif</t>
+  </si>
+  <si>
+    <t>Ranger's armor</t>
+  </si>
+  <si>
+    <t>Cleric's hat</t>
+  </si>
+  <si>
+    <t>Cleric's robe</t>
+  </si>
+  <si>
+    <t>Steel greaves</t>
+  </si>
+  <si>
+    <t>Ranger's boots</t>
+  </si>
+  <si>
+    <t>Belt of lightness</t>
+  </si>
+  <si>
+    <t>Wizard's boots</t>
+  </si>
+  <si>
+    <t>Knight's helm</t>
+  </si>
+  <si>
+    <t>Knight's armor</t>
+  </si>
+  <si>
+    <t>Knight's shield</t>
+  </si>
+  <si>
+    <t>Knight's greaves</t>
+  </si>
+  <si>
+    <t>Knight's gauntlet</t>
+  </si>
+  <si>
+    <t>Ninja's mask</t>
+  </si>
+  <si>
+    <t>Ninja's armor</t>
+  </si>
+  <si>
+    <t>Elven archer's hat</t>
+  </si>
+  <si>
+    <t>Elven tunic</t>
+  </si>
+  <si>
+    <t>Elementalist's hat</t>
+  </si>
+  <si>
+    <t>Elementalist's robe</t>
+  </si>
+  <si>
+    <t>Dragonhide gloves</t>
+  </si>
+  <si>
+    <t>Ninja's sash</t>
+  </si>
+  <si>
+    <t>Gloves of the master thief</t>
+  </si>
+  <si>
+    <t>Hero's circlet</t>
+  </si>
+  <si>
+    <t>Hero's armor</t>
+  </si>
+  <si>
+    <t>Hero's shield</t>
+  </si>
+  <si>
+    <t>Grand mage's hat</t>
+  </si>
+  <si>
+    <t>Grand mage's robes</t>
+  </si>
+  <si>
+    <t>Boots of the king slayer</t>
+  </si>
+  <si>
+    <t>Utility belt</t>
+  </si>
+  <si>
+    <t>Grand mage's boots</t>
+  </si>
+  <si>
+    <t>Berserk's armor</t>
+  </si>
+  <si>
+    <t>Shinobi wraps</t>
+  </si>
+  <si>
+    <t>Shinobi tabi</t>
+  </si>
+  <si>
+    <t>Silver ring</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Silver bracelet</t>
+  </si>
+  <si>
+    <t>Bracelet</t>
+  </si>
+  <si>
+    <t>Silver necklace</t>
+  </si>
+  <si>
+    <t>Necklace</t>
+  </si>
+  <si>
+    <t>Common cape</t>
+  </si>
+  <si>
+    <t>Cape</t>
+  </si>
+  <si>
+    <t>Medallion</t>
+  </si>
+  <si>
+    <t>Trinket</t>
+  </si>
+  <si>
+    <t>Magician's ring</t>
+  </si>
+  <si>
+    <t>Archer's ring</t>
+  </si>
+  <si>
+    <t>Gamber's ring</t>
+  </si>
+  <si>
+    <t>Ring of protection</t>
+  </si>
+  <si>
+    <t>Gold bracelet</t>
+  </si>
+  <si>
+    <t>Cleric's necklace</t>
+  </si>
+  <si>
+    <t>Thieves den pendant</t>
+  </si>
+  <si>
+    <t>Fine cloak</t>
+  </si>
+  <si>
+    <t>Thieves den signet</t>
+  </si>
+  <si>
+    <t>Soldier's charm</t>
+  </si>
+  <si>
+    <t>Mercenary emblem</t>
+  </si>
+  <si>
+    <t>Royal ring</t>
+  </si>
+  <si>
+    <t>Royal pendant</t>
+  </si>
+  <si>
+    <t>Enchanted armguards</t>
+  </si>
+  <si>
+    <t>Eagle eye necklace</t>
+  </si>
+  <si>
+    <t>Assassin's cloak</t>
+  </si>
+  <si>
+    <t>Dragonhide cape</t>
+  </si>
+  <si>
+    <t>Wizard's Mantle</t>
+  </si>
+  <si>
+    <t>Witch's signet</t>
+  </si>
+  <si>
+    <t>Assassin's escape measures</t>
+  </si>
+  <si>
+    <t>Armband of the thief</t>
+  </si>
+  <si>
+    <t>Monk's armlet</t>
+  </si>
+  <si>
+    <t>Ring of wealth</t>
+  </si>
+  <si>
+    <t>Barbarian's war pendant</t>
+  </si>
+  <si>
+    <t>Holy pendant</t>
+  </si>
+  <si>
+    <t>Grand mage's necklace</t>
+  </si>
+  <si>
+    <t>Hero's cape</t>
+  </si>
+  <si>
+    <t>Holy cloak</t>
+  </si>
+  <si>
+    <t>Arcane crystal emblem</t>
+  </si>
+  <si>
+    <t>Mark of the hero</t>
+  </si>
+  <si>
     <t>Strength</t>
   </si>
   <si>
@@ -313,6 +589,111 @@
   </si>
   <si>
     <t>Echo strike</t>
+  </si>
+  <si>
+    <t>Health potion</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>Mana potion</t>
+  </si>
+  <si>
+    <t>Strength potion</t>
+  </si>
+  <si>
+    <t>Iron pickaxe</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Fishing rod</t>
+  </si>
+  <si>
+    <t>Fishing bait</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Crafter's kit</t>
+  </si>
+  <si>
+    <t>Cooking set</t>
+  </si>
+  <si>
+    <t>Greater health potion</t>
+  </si>
+  <si>
+    <t>Greater mana potion</t>
+  </si>
+  <si>
+    <t>Greater strength potion</t>
+  </si>
+  <si>
+    <t>Wizard's brew</t>
+  </si>
+  <si>
+    <t>Eagle eye potion</t>
+  </si>
+  <si>
+    <t>Bigger bag</t>
+  </si>
+  <si>
+    <t>Dust of appearance</t>
+  </si>
+  <si>
+    <t>Lockpick</t>
+  </si>
+  <si>
+    <t>Safecracker kit</t>
+  </si>
+  <si>
+    <t>Divine health potion</t>
+  </si>
+  <si>
+    <t>Divine mana potion</t>
+  </si>
+  <si>
+    <t>Invisibility potion</t>
+  </si>
+  <si>
+    <t>Dwarven pickaxe</t>
+  </si>
+  <si>
+    <t>Dwarven axe</t>
+  </si>
+  <si>
+    <t>Master angler's fishing rod</t>
+  </si>
+  <si>
+    <t>Enchanter's dust</t>
+  </si>
+  <si>
+    <t>Workshop kit</t>
+  </si>
+  <si>
+    <t>Gigantic bag</t>
+  </si>
+  <si>
+    <t>Divine combat brew</t>
+  </si>
+  <si>
+    <t>Gourmet kit</t>
+  </si>
+  <si>
+    <t>Salvation idol</t>
+  </si>
+  <si>
+    <t>Gatherer's kit</t>
+  </si>
+  <si>
+    <t>Divine feathers</t>
   </si>
 </sst>
 </file>
@@ -380,8 +761,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2BA695B3-0A35-475C-841A-6EC65C2B7352}" name="Table24" displayName="Table24" ref="A1:C30" totalsRowShown="0">
-  <autoFilter ref="A1:C30" xr:uid="{2BA695B3-0A35-475C-841A-6EC65C2B7352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2BA695B3-0A35-475C-841A-6EC65C2B7352}" name="Table24" displayName="Table24" ref="A1:C48" totalsRowShown="0">
+  <autoFilter ref="A1:C48" xr:uid="{2BA695B3-0A35-475C-841A-6EC65C2B7352}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F693B918-0E55-4939-9CF7-A50306FAE973}" name="Name"/>
     <tableColumn id="2" xr3:uid="{8B8FC862-0B94-4FB5-9CE9-D7CBF2D7DD53}" name="Type"/>
@@ -392,8 +773,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{195A4782-78DA-4DBC-92D3-112E673FC2E0}" name="Table25" displayName="Table25" ref="A1:C30" totalsRowShown="0">
-  <autoFilter ref="A1:C30" xr:uid="{195A4782-78DA-4DBC-92D3-112E673FC2E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{195A4782-78DA-4DBC-92D3-112E673FC2E0}" name="Table25" displayName="Table25" ref="A1:C36" totalsRowShown="0">
+  <autoFilter ref="A1:C36" xr:uid="{195A4782-78DA-4DBC-92D3-112E673FC2E0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C155A1CF-8B4C-4584-B0C5-17E6A1EBE833}" name="Name"/>
     <tableColumn id="2" xr3:uid="{76678DD7-B9E6-41E9-A4E1-B572370149A5}" name="Type"/>
@@ -416,8 +797,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{44AE69C4-FC4B-4F17-B3D4-A498D5EBC400}" name="Table27" displayName="Table27" ref="A1:C30" totalsRowShown="0">
-  <autoFilter ref="A1:C30" xr:uid="{44AE69C4-FC4B-4F17-B3D4-A498D5EBC400}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{44AE69C4-FC4B-4F17-B3D4-A498D5EBC400}" name="Table27" displayName="Table27" ref="A1:C34" totalsRowShown="0">
+  <autoFilter ref="A1:C34" xr:uid="{44AE69C4-FC4B-4F17-B3D4-A498D5EBC400}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CA623C7E-1EBA-4EED-A8A0-7F717FEDB950}" name="Name"/>
     <tableColumn id="2" xr3:uid="{1BD6B216-FD5D-4B05-A29E-6531FF813AA7}" name="Type"/>
@@ -727,7 +1108,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1085,13 +1466,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3255009-59FD-4B61-A56C-09FD864445A8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1104,13 +1489,533 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30" xr:uid="{83F5310F-4248-4F83-8BD6-4EDC105645FE}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C48" xr:uid="{83F5310F-4248-4F83-8BD6-4EDC105645FE}">
       <formula1>"Normal,Rare,Super rare,Ultra rare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{6E94F687-D7B5-4D80-BD79-223EEF699B81}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B17" xr:uid="{6E94F687-D7B5-4D80-BD79-223EEF699B81}">
       <formula1>"Helmet,body,shield,boots,gloves,belt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14 B16 B18:B48" xr:uid="{4DF7664A-5E15-41BC-9EB8-CAB638DF3CC2}">
+      <formula1>"Helmet,Body,Shield,Boots,Gloves,Belt"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1122,13 +2027,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B34EB3-FFFE-4BC6-BDD3-CA8C1E3538F7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1141,13 +2050,398 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30" xr:uid="{DAF48FCF-DE01-43C5-9D58-C07F56DF38BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36" xr:uid="{1ACD1CB2-20FD-4EBF-8A50-B5017C5BCAF6}">
+      <formula1>"Ring,Bracelet,Necklace,Trinket,Cape"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36 D26" xr:uid="{DAF48FCF-DE01-43C5-9D58-C07F56DF38BB}">
       <formula1>"Normal,Rare,Super rare,Ultra rare"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{618A5FAB-D5E5-4ECB-B389-3D285B9D61F3}">
-      <formula1>"Ring,Bracelet,Necklace,Trinket"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,7 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C071B57B-380F-4ED3-88AD-695C4819C482}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -1184,10 +2478,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1195,10 +2489,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1206,10 +2500,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1217,10 +2511,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1228,10 +2522,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1239,10 +2533,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1250,10 +2544,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1261,10 +2555,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1272,10 +2566,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1283,10 +2577,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1294,10 +2588,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1305,10 +2599,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1316,10 +2610,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1327,10 +2621,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1338,10 +2632,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1349,10 +2643,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1360,10 +2654,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1371,10 +2665,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1382,10 +2676,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -1393,10 +2687,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -1404,10 +2698,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -1415,10 +2709,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -1426,10 +2720,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -1437,10 +2731,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -1448,10 +2742,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -1459,10 +2753,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1470,10 +2764,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -1481,10 +2775,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -1492,10 +2786,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -1503,10 +2797,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -1514,10 +2808,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -1525,10 +2819,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -1536,10 +2830,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -1547,10 +2841,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -1558,10 +2852,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -1569,10 +2863,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -1580,10 +2874,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -1591,10 +2885,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -1602,10 +2896,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -1613,10 +2907,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
@@ -1624,10 +2918,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -1635,10 +2929,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
@@ -1646,10 +2940,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
@@ -1657,10 +2951,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -1668,10 +2962,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
@@ -1679,10 +2973,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
@@ -1706,13 +3000,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AEE5D1-8B28-4CBA-830E-2988AD947807}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1725,10 +3024,376 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30" xr:uid="{677277D7-9014-4B61-9400-F8A53AA4B2EE}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C34" xr:uid="{677277D7-9014-4B61-9400-F8A53AA4B2EE}">
       <formula1>"Normal,Rare,Super rare,Ultra rare"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{B876BD55-A37F-46A3-BB7B-A6F498AC4938}">
+      <formula1>"Tool,Material,Consumable"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
